--- a/data_year/zb/国民经济核算/支出法国内生产总值.xlsx
+++ b/data_year/zb/国民经济核算/支出法国内生产总值.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,904 +498,556 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15611.8382965891</v>
+        <v>32527.0670443268</v>
       </c>
       <c r="C2" t="n">
-        <v>32668.6797251107</v>
+        <v>181041.123887861</v>
       </c>
       <c r="D2" t="n">
-        <v>31251.4358068463</v>
+        <v>108938.394393412</v>
       </c>
       <c r="E2" t="n">
-        <v>998.4</v>
+        <v>10825.7544088989</v>
       </c>
       <c r="F2" t="n">
-        <v>46863.2741034354</v>
+        <v>141465.461437739</v>
       </c>
       <c r="G2" t="n">
-        <v>99798.9626714497</v>
+        <v>408505.399143907</v>
       </c>
       <c r="H2" t="n">
-        <v>16885.6009058272</v>
+        <v>60115.9206487804</v>
       </c>
       <c r="I2" t="n">
-        <v>63748.8750092626</v>
+        <v>201581.38208652</v>
       </c>
       <c r="J2" t="n">
-        <v>63.8772922111</v>
+        <v>49.346075354</v>
       </c>
       <c r="K2" t="n">
-        <v>2383.0079370764</v>
+        <v>15057.1387606275</v>
       </c>
       <c r="L2" t="n">
-        <v>33667.0797251107</v>
+        <v>191866.87829676</v>
       </c>
       <c r="M2" t="n">
-        <v>33.7348994658</v>
+        <v>46.9680152818</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16297.4673637528</v>
+        <v>38835.6155587891</v>
       </c>
       <c r="C3" t="n">
-        <v>37087.6241038551</v>
+        <v>214017.206306007</v>
       </c>
       <c r="D3" t="n">
-        <v>34167.2152336153</v>
+        <v>131555.185541849</v>
       </c>
       <c r="E3" t="n">
-        <v>2314.9</v>
+        <v>13656.2728040979</v>
       </c>
       <c r="F3" t="n">
-        <v>50464.6825973681</v>
+        <v>170390.801100639</v>
       </c>
       <c r="G3" t="n">
-        <v>110388.354618266</v>
+        <v>484109.305966753</v>
       </c>
       <c r="H3" t="n">
-        <v>18196.4514629666</v>
+        <v>74356.5450895965</v>
       </c>
       <c r="I3" t="n">
-        <v>68661.13406033471</v>
+        <v>244747.346190235</v>
       </c>
       <c r="J3" t="n">
-        <v>62.1996172493</v>
+        <v>50.5562159565</v>
       </c>
       <c r="K3" t="n">
-        <v>2324.6964540761</v>
+        <v>11688.4806664133</v>
       </c>
       <c r="L3" t="n">
-        <v>39402.5241038551</v>
+        <v>227673.479110105</v>
       </c>
       <c r="M3" t="n">
-        <v>35.6944573004</v>
+        <v>47.0293539711</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17016.6683316952</v>
+        <v>42311.5753858464</v>
       </c>
       <c r="C4" t="n">
-        <v>42672.1403169343</v>
+        <v>238320.724535649</v>
       </c>
       <c r="D4" t="n">
-        <v>37650.3015694448</v>
+        <v>148273.207878028</v>
       </c>
       <c r="E4" t="n">
-        <v>1332.9</v>
+        <v>10639.2893970236</v>
       </c>
       <c r="F4" t="n">
-        <v>54666.96990114</v>
+        <v>190584.783263875</v>
       </c>
       <c r="G4" t="n">
-        <v>121326.680660632</v>
+        <v>539039.90601249</v>
       </c>
       <c r="H4" t="n">
-        <v>19560.506742035</v>
+        <v>84859.0796532895</v>
       </c>
       <c r="I4" t="n">
-        <v>74227.476643175</v>
+        <v>275443.862917164</v>
       </c>
       <c r="J4" t="n">
-        <v>61.1798462127</v>
+        <v>51.0989742772</v>
       </c>
       <c r="K4" t="n">
-        <v>3094.1637005229</v>
+        <v>14636.0291626524</v>
       </c>
       <c r="L4" t="n">
-        <v>44005.0403169343</v>
+        <v>248960.013932673</v>
       </c>
       <c r="M4" t="n">
-        <v>36.2698790384</v>
+        <v>46.1858224513</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17774.9616522285</v>
+        <v>46587.7571872359</v>
       </c>
       <c r="C5" t="n">
-        <v>52574.4896912595</v>
+        <v>263979.909961717</v>
       </c>
       <c r="D5" t="n">
-        <v>40914.9455565654</v>
+        <v>165889.53434957</v>
       </c>
       <c r="E5" t="n">
-        <v>1872.3</v>
+        <v>11148.7984980686</v>
       </c>
       <c r="F5" t="n">
-        <v>58689.9072087939</v>
+        <v>212477.291536806</v>
       </c>
       <c r="G5" t="n">
-        <v>137146.709830367</v>
+        <v>596344.481645316</v>
       </c>
       <c r="H5" t="n">
-        <v>21045.0980774966</v>
+        <v>94186.3735967362</v>
       </c>
       <c r="I5" t="n">
-        <v>79735.0052862905</v>
+        <v>306663.665133542</v>
       </c>
       <c r="J5" t="n">
-        <v>58.1384747654</v>
+        <v>51.4239126163</v>
       </c>
       <c r="K5" t="n">
-        <v>2964.9148528172</v>
+        <v>14552.1080519885</v>
       </c>
       <c r="L5" t="n">
-        <v>54446.7896912595</v>
+        <v>275128.708459785</v>
       </c>
       <c r="M5" t="n">
-        <v>39.6996688864</v>
+        <v>46.1358689361</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19232.5701385904</v>
+        <v>51499.6952740285</v>
       </c>
       <c r="C6" t="n">
-        <v>63974.8713815163</v>
+        <v>282241.6381569</v>
       </c>
       <c r="D6" t="n">
-        <v>46492.1848318331</v>
+        <v>184738.795017212</v>
       </c>
       <c r="E6" t="n">
-        <v>3750.7</v>
+        <v>12664.414833238</v>
       </c>
       <c r="F6" t="n">
-        <v>65724.7549704236</v>
+        <v>236238.49029124</v>
       </c>
       <c r="G6" t="n">
-        <v>161355.60516628</v>
+        <v>646547.960703342</v>
       </c>
       <c r="H6" t="n">
-        <v>23669.6775202739</v>
+        <v>101792.663608363</v>
       </c>
       <c r="I6" t="n">
-        <v>89394.43249069749</v>
+        <v>338031.153899603</v>
       </c>
       <c r="J6" t="n">
-        <v>55.402124022</v>
+        <v>52.2824561278</v>
       </c>
       <c r="K6" t="n">
-        <v>4235.6012940666</v>
+        <v>13610.7538136</v>
       </c>
       <c r="L6" t="n">
-        <v>67725.5713815163</v>
+        <v>294906.052990138</v>
       </c>
       <c r="M6" t="n">
-        <v>41.9728656539</v>
+        <v>45.6124016955</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20911.957992981</v>
+        <v>56422.8823615134</v>
       </c>
       <c r="C7" t="n">
-        <v>73852.0052667506</v>
+        <v>289970.239658219</v>
       </c>
       <c r="D7" t="n">
-        <v>53241.7483214749</v>
+        <v>203779.557521106</v>
       </c>
       <c r="E7" t="n">
-        <v>1723.9595146585</v>
+        <v>7856.2790508108</v>
       </c>
       <c r="F7" t="n">
-        <v>74153.70631445581</v>
+        <v>260202.439881638</v>
       </c>
       <c r="G7" t="n">
-        <v>187657.543629284</v>
+        <v>692093.699095787</v>
       </c>
       <c r="H7" t="n">
-        <v>27718.8191612022</v>
+        <v>111718.245832571</v>
       </c>
       <c r="I7" t="n">
-        <v>101872.525475658</v>
+        <v>371920.685714209</v>
       </c>
       <c r="J7" t="n">
-        <v>54.2864003788</v>
+        <v>53.738487462</v>
       </c>
       <c r="K7" t="n">
-        <v>10209.0533722173</v>
+        <v>22346.4946725484</v>
       </c>
       <c r="L7" t="n">
-        <v>75575.9647814091</v>
+        <v>297826.51870903</v>
       </c>
       <c r="M7" t="n">
-        <v>40.2733422381</v>
+        <v>43.0326874957</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22639.5566132072</v>
+        <v>61707.9740923538</v>
       </c>
       <c r="C8" t="n">
-        <v>84978.6204605549</v>
+        <v>310144.798875507</v>
       </c>
       <c r="D8" t="n">
-        <v>60202.8114655189</v>
+        <v>226960.180438083</v>
       </c>
       <c r="E8" t="n">
-        <v>2600.0180700398</v>
+        <v>8053.6923377156</v>
       </c>
       <c r="F8" t="n">
-        <v>82842.3680787261</v>
+        <v>288668.154530436</v>
       </c>
       <c r="G8" t="n">
-        <v>219597.519597762</v>
+        <v>745980.508192696</v>
       </c>
       <c r="H8" t="n">
-        <v>32521.9141651026</v>
+        <v>122138.263060183</v>
       </c>
       <c r="I8" t="n">
-        <v>115364.282243829</v>
+        <v>410806.417590619</v>
       </c>
       <c r="J8" t="n">
-        <v>52.5344195395</v>
+        <v>55.0693232704</v>
       </c>
       <c r="K8" t="n">
-        <v>16654.5988233383</v>
+        <v>16975.5993888545</v>
       </c>
       <c r="L8" t="n">
-        <v>87578.6385305946</v>
+        <v>318198.491213223</v>
       </c>
       <c r="M8" t="n">
-        <v>39.8814334019</v>
+        <v>42.6550677556</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25588.5158730926</v>
+        <v>68606.161118815</v>
       </c>
       <c r="C9" t="n">
-        <v>102344.648247094</v>
+        <v>348300.110171991</v>
       </c>
       <c r="D9" t="n">
-        <v>72642.7815324737</v>
+        <v>252083.342968186</v>
       </c>
       <c r="E9" t="n">
-        <v>6994.6398722488</v>
+        <v>9585.986739292201</v>
       </c>
       <c r="F9" t="n">
-        <v>98231.29740556631</v>
+        <v>320689.504087001</v>
       </c>
       <c r="G9" t="n">
-        <v>270499.406327916</v>
+        <v>828982.763984279</v>
       </c>
       <c r="H9" t="n">
-        <v>39505.7611743207</v>
+        <v>135828.722192922</v>
       </c>
       <c r="I9" t="n">
-        <v>137737.058579887</v>
+        <v>456518.226279923</v>
       </c>
       <c r="J9" t="n">
-        <v>50.9195419131</v>
+        <v>55.0696885525</v>
       </c>
       <c r="K9" t="n">
-        <v>23423.0596286863</v>
+        <v>14578.4407930736</v>
       </c>
       <c r="L9" t="n">
-        <v>109339.288119343</v>
+        <v>357886.096911283</v>
       </c>
       <c r="M9" t="n">
-        <v>40.4212673158</v>
+        <v>43.1717174904</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28240.7488780541</v>
+        <v>76759.07555115091</v>
       </c>
       <c r="C10" t="n">
-        <v>124700.706729416</v>
+        <v>393847.900354837</v>
       </c>
       <c r="D10" t="n">
-        <v>84413.9074698594</v>
+        <v>277365.302616369</v>
       </c>
       <c r="E10" t="n">
-        <v>10240.88424562</v>
+        <v>8737.252666406501</v>
       </c>
       <c r="F10" t="n">
-        <v>112654.656347913</v>
+        <v>354124.37816752</v>
       </c>
       <c r="G10" t="n">
-        <v>318067.559149571</v>
+        <v>915774.260361037</v>
       </c>
       <c r="H10" t="n">
-        <v>46244.5435665477</v>
+        <v>152010.565640389</v>
       </c>
       <c r="I10" t="n">
-        <v>158899.199914461</v>
+        <v>506134.943807909</v>
       </c>
       <c r="J10" t="n">
-        <v>49.9576883412</v>
+        <v>55.2685272595</v>
       </c>
       <c r="K10" t="n">
-        <v>24226.7682600738</v>
+        <v>7054.1635318839</v>
       </c>
       <c r="L10" t="n">
-        <v>134941.590975036</v>
+        <v>402585.153021244</v>
       </c>
       <c r="M10" t="n">
-        <v>42.4254492775</v>
+        <v>43.961177715</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29924.1645162772</v>
+        <v>82057.35260775129</v>
       </c>
       <c r="C11" t="n">
-        <v>152691.098809699</v>
+        <v>422451.304635854</v>
       </c>
       <c r="D11" t="n">
-        <v>93197.73009682279</v>
+        <v>305130.746916706</v>
       </c>
       <c r="E11" t="n">
-        <v>5383.43094818</v>
+        <v>4227.42769506589</v>
       </c>
       <c r="F11" t="n">
-        <v>123121.8946131</v>
+        <v>387188.099524457</v>
       </c>
       <c r="G11" t="n">
-        <v>347650.271631306</v>
+        <v>990708.395261227</v>
       </c>
       <c r="H11" t="n">
-        <v>51416.7395429621</v>
+        <v>165443.639644106</v>
       </c>
       <c r="I11" t="n">
-        <v>174538.634156062</v>
+        <v>552631.739168563</v>
       </c>
       <c r="J11" t="n">
-        <v>50.2052345126</v>
+        <v>55.7814733186799</v>
       </c>
       <c r="K11" t="n">
-        <v>15037.1077173648</v>
+        <v>11397.9237617442</v>
       </c>
       <c r="L11" t="n">
-        <v>158074.529757879</v>
+        <v>426678.73233092</v>
       </c>
       <c r="M11" t="n">
-        <v>45.4694106857</v>
+        <v>43.0680444792652</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>32527.0670443268</v>
+        <v>83099.4837721048</v>
       </c>
       <c r="C12" t="n">
-        <v>181041.123887861</v>
+        <v>430624.872699863</v>
       </c>
       <c r="D12" t="n">
-        <v>108938.394393412</v>
+        <v>304086.277350077</v>
       </c>
       <c r="E12" t="n">
-        <v>10825.7544088989</v>
+        <v>8925.43955318573</v>
       </c>
       <c r="F12" t="n">
-        <v>141465.461437739</v>
+        <v>387185.761122182</v>
       </c>
       <c r="G12" t="n">
-        <v>408505.399143907</v>
+        <v>1025628.36557657</v>
       </c>
       <c r="H12" t="n">
-        <v>60115.9206487804</v>
+        <v>173625.379441957</v>
       </c>
       <c r="I12" t="n">
-        <v>201581.38208652</v>
+        <v>560811.140564139</v>
       </c>
       <c r="J12" t="n">
-        <v>49.346075354</v>
+        <v>54.6797611480715</v>
       </c>
       <c r="K12" t="n">
-        <v>15057.1387606275</v>
+        <v>25266.9127593842</v>
       </c>
       <c r="L12" t="n">
-        <v>191866.87829676</v>
+        <v>439550.312253048</v>
       </c>
       <c r="M12" t="n">
-        <v>46.9680152818</v>
+        <v>42.8566844488499</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38835.6155587891</v>
+        <v>92930.60460451931</v>
       </c>
       <c r="C13" t="n">
-        <v>214017.206306007</v>
+        <v>482119.323778409</v>
       </c>
       <c r="D13" t="n">
-        <v>131555.185541849</v>
+        <v>345084.581114841</v>
       </c>
       <c r="E13" t="n">
-        <v>13656.2728040979</v>
+        <v>13664.9458725653</v>
       </c>
       <c r="F13" t="n">
-        <v>170390.801100639</v>
+        <v>438015.18571936</v>
       </c>
       <c r="G13" t="n">
-        <v>484109.305966753</v>
+        <v>1145282.92724189</v>
       </c>
       <c r="H13" t="n">
-        <v>74356.5450895965</v>
+        <v>181672.972169059</v>
       </c>
       <c r="I13" t="n">
-        <v>244747.346190235</v>
+        <v>619688.157888419</v>
       </c>
       <c r="J13" t="n">
-        <v>50.5562159565</v>
+        <v>54.1078665496896</v>
       </c>
       <c r="K13" t="n">
-        <v>11688.4806664133</v>
+        <v>29810.4997024938</v>
       </c>
       <c r="L13" t="n">
-        <v>227673.479110105</v>
+        <v>495784.269650974</v>
       </c>
       <c r="M13" t="n">
-        <v>47.0293539711</v>
+        <v>43.2892395283443</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>42311.5753858464</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>238320.724535649</v>
-      </c>
-      <c r="D14" t="n">
-        <v>148273.207878028</v>
-      </c>
+        <v>507957.544804026</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>10639.2893970236</v>
+        <v>15932.811648811</v>
       </c>
       <c r="F14" t="n">
-        <v>190584.783263875</v>
+        <v>447910.209905048</v>
       </c>
       <c r="G14" t="n">
-        <v>539039.90601249</v>
+        <v>1205017.03609911</v>
       </c>
       <c r="H14" t="n">
-        <v>84859.0796532895</v>
+        <v>193722.81015253</v>
       </c>
       <c r="I14" t="n">
-        <v>275443.862917164</v>
+        <v>641633.020057578</v>
       </c>
       <c r="J14" t="n">
-        <v>51.0989742772</v>
+        <v>53.2468007369154</v>
       </c>
       <c r="K14" t="n">
-        <v>14636.0291626524</v>
+        <v>39493.6595886959</v>
       </c>
       <c r="L14" t="n">
-        <v>248960.013932673</v>
+        <v>523890.356452837</v>
       </c>
       <c r="M14" t="n">
-        <v>46.1858224513</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>46587.7571872359</v>
-      </c>
-      <c r="C15" t="n">
-        <v>263979.909961717</v>
-      </c>
-      <c r="D15" t="n">
-        <v>165889.53434957</v>
-      </c>
-      <c r="E15" t="n">
-        <v>11148.7984980686</v>
-      </c>
-      <c r="F15" t="n">
-        <v>212477.291536806</v>
-      </c>
-      <c r="G15" t="n">
-        <v>596344.481645316</v>
-      </c>
-      <c r="H15" t="n">
-        <v>94186.3735967362</v>
-      </c>
-      <c r="I15" t="n">
-        <v>306663.665133542</v>
-      </c>
-      <c r="J15" t="n">
-        <v>51.4239126163</v>
-      </c>
-      <c r="K15" t="n">
-        <v>14552.1080519885</v>
-      </c>
-      <c r="L15" t="n">
-        <v>275128.708459785</v>
-      </c>
-      <c r="M15" t="n">
-        <v>46.1358689361</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>51499.6952740285</v>
-      </c>
-      <c r="C16" t="n">
-        <v>282241.6381569</v>
-      </c>
-      <c r="D16" t="n">
-        <v>184738.795017212</v>
-      </c>
-      <c r="E16" t="n">
-        <v>12664.414833238</v>
-      </c>
-      <c r="F16" t="n">
-        <v>236238.49029124</v>
-      </c>
-      <c r="G16" t="n">
-        <v>646547.960703342</v>
-      </c>
-      <c r="H16" t="n">
-        <v>101792.663608363</v>
-      </c>
-      <c r="I16" t="n">
-        <v>338031.153899603</v>
-      </c>
-      <c r="J16" t="n">
-        <v>52.2824561278</v>
-      </c>
-      <c r="K16" t="n">
-        <v>13610.7538136</v>
-      </c>
-      <c r="L16" t="n">
-        <v>294906.052990138</v>
-      </c>
-      <c r="M16" t="n">
-        <v>45.6124016955</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>56422.8823615134</v>
-      </c>
-      <c r="C17" t="n">
-        <v>289970.239658219</v>
-      </c>
-      <c r="D17" t="n">
-        <v>203779.557521106</v>
-      </c>
-      <c r="E17" t="n">
-        <v>7856.2790508108</v>
-      </c>
-      <c r="F17" t="n">
-        <v>260202.439881638</v>
-      </c>
-      <c r="G17" t="n">
-        <v>692093.699095787</v>
-      </c>
-      <c r="H17" t="n">
-        <v>111718.245832571</v>
-      </c>
-      <c r="I17" t="n">
-        <v>371920.685714209</v>
-      </c>
-      <c r="J17" t="n">
-        <v>53.738487462</v>
-      </c>
-      <c r="K17" t="n">
-        <v>22346.4946725484</v>
-      </c>
-      <c r="L17" t="n">
-        <v>297826.51870903</v>
-      </c>
-      <c r="M17" t="n">
-        <v>43.0326874957</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>61707.9740923538</v>
-      </c>
-      <c r="C18" t="n">
-        <v>310144.798875507</v>
-      </c>
-      <c r="D18" t="n">
-        <v>226960.180438083</v>
-      </c>
-      <c r="E18" t="n">
-        <v>8053.6923377156</v>
-      </c>
-      <c r="F18" t="n">
-        <v>288668.154530436</v>
-      </c>
-      <c r="G18" t="n">
-        <v>745980.508192696</v>
-      </c>
-      <c r="H18" t="n">
-        <v>122138.263060183</v>
-      </c>
-      <c r="I18" t="n">
-        <v>410806.417590619</v>
-      </c>
-      <c r="J18" t="n">
-        <v>55.0693232704</v>
-      </c>
-      <c r="K18" t="n">
-        <v>16975.5993888545</v>
-      </c>
-      <c r="L18" t="n">
-        <v>318198.491213223</v>
-      </c>
-      <c r="M18" t="n">
-        <v>42.6550677556</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>68606.161118815</v>
-      </c>
-      <c r="C19" t="n">
-        <v>348300.110171991</v>
-      </c>
-      <c r="D19" t="n">
-        <v>252083.342968186</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9585.986739292201</v>
-      </c>
-      <c r="F19" t="n">
-        <v>320689.504087001</v>
-      </c>
-      <c r="G19" t="n">
-        <v>828982.763984279</v>
-      </c>
-      <c r="H19" t="n">
-        <v>135828.722192922</v>
-      </c>
-      <c r="I19" t="n">
-        <v>456518.226279923</v>
-      </c>
-      <c r="J19" t="n">
-        <v>55.0696885525</v>
-      </c>
-      <c r="K19" t="n">
-        <v>14578.4407930736</v>
-      </c>
-      <c r="L19" t="n">
-        <v>357886.096911283</v>
-      </c>
-      <c r="M19" t="n">
-        <v>43.1717174904</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>76759.07555115091</v>
-      </c>
-      <c r="C20" t="n">
-        <v>393847.900354837</v>
-      </c>
-      <c r="D20" t="n">
-        <v>277365.302616369</v>
-      </c>
-      <c r="E20" t="n">
-        <v>8737.252666406501</v>
-      </c>
-      <c r="F20" t="n">
-        <v>354124.37816752</v>
-      </c>
-      <c r="G20" t="n">
-        <v>915774.260361037</v>
-      </c>
-      <c r="H20" t="n">
-        <v>152010.565640389</v>
-      </c>
-      <c r="I20" t="n">
-        <v>506134.943807909</v>
-      </c>
-      <c r="J20" t="n">
-        <v>55.2685272595</v>
-      </c>
-      <c r="K20" t="n">
-        <v>7054.1635318839</v>
-      </c>
-      <c r="L20" t="n">
-        <v>402585.153021244</v>
-      </c>
-      <c r="M20" t="n">
-        <v>43.961177715</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>82057.35260775129</v>
-      </c>
-      <c r="C21" t="n">
-        <v>422451.304635854</v>
-      </c>
-      <c r="D21" t="n">
-        <v>305130.746916706</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4227.42769506589</v>
-      </c>
-      <c r="F21" t="n">
-        <v>387188.099524457</v>
-      </c>
-      <c r="G21" t="n">
-        <v>990708.395261227</v>
-      </c>
-      <c r="H21" t="n">
-        <v>165443.639644106</v>
-      </c>
-      <c r="I21" t="n">
-        <v>552631.739168563</v>
-      </c>
-      <c r="J21" t="n">
-        <v>55.7814733186799</v>
-      </c>
-      <c r="K21" t="n">
-        <v>11397.9237617442</v>
-      </c>
-      <c r="L21" t="n">
-        <v>426678.73233092</v>
-      </c>
-      <c r="M21" t="n">
-        <v>43.0680444792652</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>83099.4837721048</v>
-      </c>
-      <c r="C22" t="n">
-        <v>430624.872699863</v>
-      </c>
-      <c r="D22" t="n">
-        <v>304086.277350077</v>
-      </c>
-      <c r="E22" t="n">
-        <v>8925.43955318573</v>
-      </c>
-      <c r="F22" t="n">
-        <v>387185.761122182</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1025628.36557657</v>
-      </c>
-      <c r="H22" t="n">
-        <v>173625.379441957</v>
-      </c>
-      <c r="I22" t="n">
-        <v>560811.140564139</v>
-      </c>
-      <c r="J22" t="n">
-        <v>54.6797611480716</v>
-      </c>
-      <c r="K22" t="n">
-        <v>25266.9127593842</v>
-      </c>
-      <c r="L22" t="n">
-        <v>439550.312253048</v>
-      </c>
-      <c r="M22" t="n">
-        <v>42.85668444885</v>
+        <v>43.4757634754093</v>
       </c>
     </row>
   </sheetData>
